--- a/Datasets/Perhitungan.xlsx
+++ b/Datasets/Perhitungan.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Documents\skripsi\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB63FB61-4291-4EB6-9E1A-D86609EC891D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B87C5-BF71-4FC9-99B4-BF7021FA6315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3731" windowWidth="18851" windowHeight="9962" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
     <sheet name="Outlier" sheetId="2" r:id="rId2"/>
+    <sheet name="Normalisasi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>age</t>
   </si>
@@ -71,6 +81,9 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>Hasil normalisasi min Max</t>
   </si>
 </sst>
 </file>
@@ -129,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -137,6 +150,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13809,29 +13840,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B8802B-B87D-42F8-8DBA-561F14618104}">
-  <dimension ref="A1:C304"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>145</v>
       </c>
@@ -13841,8 +13876,12 @@
       <c r="C2" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <f>(A2-94)/(170-94)</f>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>130</v>
       </c>
@@ -13852,8 +13891,12 @@
       <c r="C3" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D66" si="0">(A3-94)/(170-94)</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>130</v>
       </c>
@@ -13863,8 +13906,12 @@
       <c r="C4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>120</v>
       </c>
@@ -13874,8 +13921,12 @@
       <c r="C5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>120</v>
       </c>
@@ -13885,8 +13936,12 @@
       <c r="C6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>140</v>
       </c>
@@ -13896,8 +13951,12 @@
       <c r="C7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>140</v>
       </c>
@@ -13907,8 +13966,12 @@
       <c r="C8" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>120</v>
       </c>
@@ -13918,8 +13981,12 @@
       <c r="C9" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>172</v>
       </c>
@@ -13929,8 +13996,12 @@
       <c r="C10" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0263157894736843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>150</v>
       </c>
@@ -13940,8 +14011,12 @@
       <c r="C11" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>140</v>
       </c>
@@ -13951,8 +14026,12 @@
       <c r="C12" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>130</v>
       </c>
@@ -13962,8 +14041,12 @@
       <c r="C13" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>130</v>
       </c>
@@ -13973,8 +14056,12 @@
       <c r="C14" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>110</v>
       </c>
@@ -13984,8 +14071,12 @@
       <c r="C15" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>150</v>
       </c>
@@ -13995,8 +14086,12 @@
       <c r="C16" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>120</v>
       </c>
@@ -14006,8 +14101,12 @@
       <c r="C17" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>120</v>
       </c>
@@ -14017,8 +14116,12 @@
       <c r="C18" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>150</v>
       </c>
@@ -14028,8 +14131,12 @@
       <c r="C19" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>150</v>
       </c>
@@ -14039,8 +14146,12 @@
       <c r="C20" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>140</v>
       </c>
@@ -14050,8 +14161,12 @@
       <c r="C21" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>135</v>
       </c>
@@ -14061,8 +14176,12 @@
       <c r="C22" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>130</v>
       </c>
@@ -14072,8 +14191,12 @@
       <c r="C23" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>140</v>
       </c>
@@ -14083,8 +14206,12 @@
       <c r="C24" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>150</v>
       </c>
@@ -14094,8 +14221,12 @@
       <c r="C25" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>140</v>
       </c>
@@ -14105,8 +14236,12 @@
       <c r="C26" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>160</v>
       </c>
@@ -14116,8 +14251,12 @@
       <c r="C27" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>150</v>
       </c>
@@ -14127,8 +14266,12 @@
       <c r="C28" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="1">
+        <f>(A28-94)/(170-94)</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>110</v>
       </c>
@@ -14138,8 +14281,12 @@
       <c r="C29" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>140</v>
       </c>
@@ -14149,8 +14296,12 @@
       <c r="C30" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>130</v>
       </c>
@@ -14160,8 +14311,12 @@
       <c r="C31" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>105</v>
       </c>
@@ -14171,8 +14326,12 @@
       <c r="C32" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>120</v>
       </c>
@@ -14182,8 +14341,12 @@
       <c r="C33" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>130</v>
       </c>
@@ -14193,8 +14356,12 @@
       <c r="C34" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>125</v>
       </c>
@@ -14204,8 +14371,12 @@
       <c r="C35" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>125</v>
       </c>
@@ -14215,8 +14386,12 @@
       <c r="C36" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>142</v>
       </c>
@@ -14226,8 +14401,12 @@
       <c r="C37" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>135</v>
       </c>
@@ -14237,8 +14416,12 @@
       <c r="C38" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>150</v>
       </c>
@@ -14248,8 +14431,12 @@
       <c r="C39" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>155</v>
       </c>
@@ -14259,8 +14446,12 @@
       <c r="C40" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80263157894736847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>160</v>
       </c>
@@ -14270,8 +14461,12 @@
       <c r="C41" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>140</v>
       </c>
@@ -14281,8 +14476,12 @@
       <c r="C42" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>130</v>
       </c>
@@ -14292,8 +14491,12 @@
       <c r="C43" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>104</v>
       </c>
@@ -14303,8 +14506,12 @@
       <c r="C44" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="1">
+        <f>(A44-94)/(170-94)</f>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>130</v>
       </c>
@@ -14314,8 +14521,12 @@
       <c r="C45" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>140</v>
       </c>
@@ -14325,8 +14536,12 @@
       <c r="C46" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>120</v>
       </c>
@@ -14336,8 +14551,12 @@
       <c r="C47" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>140</v>
       </c>
@@ -14347,8 +14566,12 @@
       <c r="C48" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>138</v>
       </c>
@@ -14358,8 +14581,12 @@
       <c r="C49" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>128</v>
       </c>
@@ -14369,8 +14596,12 @@
       <c r="C50" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>138</v>
       </c>
@@ -14380,8 +14611,12 @@
       <c r="C51" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>130</v>
       </c>
@@ -14391,8 +14626,12 @@
       <c r="C52" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>120</v>
       </c>
@@ -14402,8 +14641,12 @@
       <c r="C53" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>130</v>
       </c>
@@ -14413,8 +14656,12 @@
       <c r="C54" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>108</v>
       </c>
@@ -14424,8 +14671,12 @@
       <c r="C55" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>135</v>
       </c>
@@ -14435,8 +14686,12 @@
       <c r="C56" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>134</v>
       </c>
@@ -14446,8 +14701,12 @@
       <c r="C57" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>122</v>
       </c>
@@ -14457,8 +14716,12 @@
       <c r="C58" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>115</v>
       </c>
@@ -14468,8 +14731,12 @@
       <c r="C59" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27631578947368424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>118</v>
       </c>
@@ -14479,8 +14746,12 @@
       <c r="C60" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>128</v>
       </c>
@@ -14490,8 +14761,12 @@
       <c r="C61" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>110</v>
       </c>
@@ -14501,8 +14776,12 @@
       <c r="C62" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>108</v>
       </c>
@@ -14512,8 +14791,12 @@
       <c r="C63" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>118</v>
       </c>
@@ -14523,8 +14806,12 @@
       <c r="C64" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>135</v>
       </c>
@@ -14534,8 +14821,12 @@
       <c r="C65" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>140</v>
       </c>
@@ -14545,8 +14836,12 @@
       <c r="C66" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>138</v>
       </c>
@@ -14556,8 +14851,12 @@
       <c r="C67" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:D68" si="1">(A67-94)/(170-94)</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>100</v>
       </c>
@@ -14567,8 +14866,12 @@
       <c r="C68" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>130</v>
       </c>
@@ -14578,8 +14881,12 @@
       <c r="C69" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="1">
+        <f>(A69-94)/(170-94)</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>120</v>
       </c>
@@ -14589,8 +14896,12 @@
       <c r="C70" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="1">
+        <f t="shared" ref="D70:D97" si="2">(A70-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>124</v>
       </c>
@@ -14600,8 +14911,12 @@
       <c r="C71" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>120</v>
       </c>
@@ -14611,8 +14926,12 @@
       <c r="C72" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -14622,8 +14941,12 @@
       <c r="C73" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>130</v>
       </c>
@@ -14633,8 +14956,12 @@
       <c r="C74" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>140</v>
       </c>
@@ -14644,8 +14971,12 @@
       <c r="C75" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>122</v>
       </c>
@@ -14655,8 +14986,12 @@
       <c r="C76" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>135</v>
       </c>
@@ -14666,8 +15001,12 @@
       <c r="C77" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>125</v>
       </c>
@@ -14677,8 +15016,12 @@
       <c r="C78" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>140</v>
       </c>
@@ -14688,8 +15031,12 @@
       <c r="C79" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>128</v>
       </c>
@@ -14699,8 +15046,12 @@
       <c r="C80" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>105</v>
       </c>
@@ -14710,8 +15061,12 @@
       <c r="C81" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>112</v>
       </c>
@@ -14721,8 +15076,12 @@
       <c r="C82" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>128</v>
       </c>
@@ -14732,8 +15091,12 @@
       <c r="C83" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>102</v>
       </c>
@@ -14743,8 +15106,12 @@
       <c r="C84" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>152</v>
       </c>
@@ -14754,8 +15121,12 @@
       <c r="C85" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>102</v>
       </c>
@@ -14765,8 +15136,12 @@
       <c r="C86" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>115</v>
       </c>
@@ -14776,8 +15151,12 @@
       <c r="C87" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27631578947368424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>118</v>
       </c>
@@ -14787,8 +15166,12 @@
       <c r="C88" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>101</v>
       </c>
@@ -14798,8 +15181,12 @@
       <c r="C89" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2105263157894732E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -14809,8 +15196,12 @@
       <c r="C90" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>100</v>
       </c>
@@ -14820,8 +15211,12 @@
       <c r="C91" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>124</v>
       </c>
@@ -14831,8 +15226,12 @@
       <c r="C92" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>132</v>
       </c>
@@ -14842,8 +15241,12 @@
       <c r="C93" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>138</v>
       </c>
@@ -14853,8 +15256,12 @@
       <c r="C94" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>132</v>
       </c>
@@ -14864,8 +15271,12 @@
       <c r="C95" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="1">
+        <f>(A95-94)/(170-94)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>112</v>
       </c>
@@ -14875,8 +15286,12 @@
       <c r="C96" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>142</v>
       </c>
@@ -14886,8 +15301,12 @@
       <c r="C97" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>140</v>
       </c>
@@ -14897,8 +15316,12 @@
       <c r="C98" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="1">
+        <f>(A98-94)/(170-94)</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>108</v>
       </c>
@@ -14908,8 +15331,12 @@
       <c r="C99" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="1">
+        <f t="shared" ref="D99:D127" si="3">(A99-94)/(170-94)</f>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>130</v>
       </c>
@@ -14919,8 +15346,12 @@
       <c r="C100" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>130</v>
       </c>
@@ -14930,8 +15361,12 @@
       <c r="C101" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>148</v>
       </c>
@@ -14941,8 +15376,12 @@
       <c r="C102" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>178</v>
       </c>
@@ -14952,8 +15391,12 @@
       <c r="C103" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1052631578947369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>140</v>
       </c>
@@ -14963,8 +15406,12 @@
       <c r="C104" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>120</v>
       </c>
@@ -14974,8 +15421,12 @@
       <c r="C105" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>129</v>
       </c>
@@ -14985,8 +15436,12 @@
       <c r="C106" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46052631578947367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>120</v>
       </c>
@@ -14996,8 +15451,12 @@
       <c r="C107" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>160</v>
       </c>
@@ -15007,8 +15466,12 @@
       <c r="C108" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>138</v>
       </c>
@@ -15018,8 +15481,12 @@
       <c r="C109" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>120</v>
       </c>
@@ -15029,8 +15496,12 @@
       <c r="C110" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -15040,8 +15511,12 @@
       <c r="C111" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>180</v>
       </c>
@@ -15051,8 +15526,12 @@
       <c r="C112" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="1">
+        <f t="shared" si="3"/>
+        <v>1.131578947368421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>150</v>
       </c>
@@ -15062,8 +15541,12 @@
       <c r="C113" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="1">
+        <f t="shared" si="3"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>140</v>
       </c>
@@ -15073,8 +15556,12 @@
       <c r="C114" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>110</v>
       </c>
@@ -15084,8 +15571,12 @@
       <c r="C115" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>130</v>
       </c>
@@ -15095,8 +15586,12 @@
       <c r="C116" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>120</v>
       </c>
@@ -15106,8 +15601,12 @@
       <c r="C117" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>130</v>
       </c>
@@ -15117,8 +15616,12 @@
       <c r="C118" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>120</v>
       </c>
@@ -15128,8 +15631,12 @@
       <c r="C119" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>105</v>
       </c>
@@ -15139,8 +15646,12 @@
       <c r="C120" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>138</v>
       </c>
@@ -15150,8 +15661,12 @@
       <c r="C121" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>130</v>
       </c>
@@ -15161,8 +15676,12 @@
       <c r="C122" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>138</v>
       </c>
@@ -15172,8 +15691,12 @@
       <c r="C123" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>112</v>
       </c>
@@ -15183,8 +15706,12 @@
       <c r="C124" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="1">
+        <f>(A124-94)/(170-94)</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>108</v>
       </c>
@@ -15194,8 +15721,12 @@
       <c r="C125" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>94</v>
       </c>
@@ -15205,8 +15736,12 @@
       <c r="C126" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>118</v>
       </c>
@@ -15216,8 +15751,12 @@
       <c r="C127" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>112</v>
       </c>
@@ -15227,8 +15766,12 @@
       <c r="C128" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="1">
+        <f>(A128-94)/(170-94)</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>152</v>
       </c>
@@ -15238,8 +15781,12 @@
       <c r="C129" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="1">
+        <f t="shared" ref="D129:D145" si="4">(A129-94)/(170-94)</f>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>136</v>
       </c>
@@ -15249,8 +15796,12 @@
       <c r="C130" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>120</v>
       </c>
@@ -15260,8 +15811,12 @@
       <c r="C131" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>160</v>
       </c>
@@ -15271,8 +15826,12 @@
       <c r="C132" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>134</v>
       </c>
@@ -15282,8 +15841,12 @@
       <c r="C133" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>120</v>
       </c>
@@ -15293,8 +15856,12 @@
       <c r="C134" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>110</v>
       </c>
@@ -15304,8 +15871,12 @@
       <c r="C135" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>126</v>
       </c>
@@ -15315,8 +15886,12 @@
       <c r="C136" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="1">
+        <f t="shared" si="4"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>130</v>
       </c>
@@ -15326,8 +15901,12 @@
       <c r="C137" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>120</v>
       </c>
@@ -15337,8 +15916,12 @@
       <c r="C138" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>128</v>
       </c>
@@ -15348,8 +15931,12 @@
       <c r="C139" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>110</v>
       </c>
@@ -15359,8 +15946,12 @@
       <c r="C140" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>128</v>
       </c>
@@ -15370,8 +15961,12 @@
       <c r="C141" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>120</v>
       </c>
@@ -15381,8 +15976,12 @@
       <c r="C142" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>115</v>
       </c>
@@ -15392,8 +15991,12 @@
       <c r="C143" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27631578947368424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>120</v>
       </c>
@@ -15403,8 +16006,12 @@
       <c r="C144" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>106</v>
       </c>
@@ -15414,8 +16021,12 @@
       <c r="C145" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>140</v>
       </c>
@@ -15425,8 +16036,12 @@
       <c r="C146" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="1">
+        <f>(A146-94)/(170-94)</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>156</v>
       </c>
@@ -15436,8 +16051,12 @@
       <c r="C147" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="1">
+        <f t="shared" ref="D147:D163" si="5">(A147-94)/(170-94)</f>
+        <v>0.81578947368421051</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>118</v>
       </c>
@@ -15447,8 +16066,12 @@
       <c r="C148" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="1">
+        <f t="shared" si="5"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>150</v>
       </c>
@@ -15458,8 +16081,12 @@
       <c r="C149" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="1">
+        <f t="shared" si="5"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>120</v>
       </c>
@@ -15469,8 +16096,12 @@
       <c r="C150" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>130</v>
       </c>
@@ -15480,8 +16111,12 @@
       <c r="C151" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>160</v>
       </c>
@@ -15491,8 +16126,12 @@
       <c r="C152" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="1">
+        <f t="shared" si="5"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>112</v>
       </c>
@@ -15502,8 +16141,12 @@
       <c r="C153" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>170</v>
       </c>
@@ -15513,8 +16156,12 @@
       <c r="C154" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>146</v>
       </c>
@@ -15524,8 +16171,12 @@
       <c r="C155" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="1">
+        <f t="shared" si="5"/>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>138</v>
       </c>
@@ -15535,8 +16186,12 @@
       <c r="C156" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>130</v>
       </c>
@@ -15546,8 +16201,12 @@
       <c r="C157" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>130</v>
       </c>
@@ -15557,8 +16216,12 @@
       <c r="C158" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>122</v>
       </c>
@@ -15568,8 +16231,12 @@
       <c r="C159" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>125</v>
       </c>
@@ -15579,8 +16246,12 @@
       <c r="C160" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>130</v>
       </c>
@@ -15590,8 +16261,12 @@
       <c r="C161" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>120</v>
       </c>
@@ -15601,8 +16276,12 @@
       <c r="C162" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>132</v>
       </c>
@@ -15612,8 +16291,12 @@
       <c r="C163" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>120</v>
       </c>
@@ -15623,8 +16306,12 @@
       <c r="C164" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="1">
+        <f>(A164-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>138</v>
       </c>
@@ -15634,8 +16321,12 @@
       <c r="C165" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="1">
+        <f t="shared" ref="D165:D181" si="6">(A165-94)/(170-94)</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>138</v>
       </c>
@@ -15645,8 +16336,12 @@
       <c r="C166" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="1">
+        <f t="shared" si="6"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>160</v>
       </c>
@@ -15656,8 +16351,12 @@
       <c r="C167" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="1">
+        <f t="shared" si="6"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>120</v>
       </c>
@@ -15667,8 +16366,12 @@
       <c r="C168" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="1">
+        <f t="shared" si="6"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>140</v>
       </c>
@@ -15678,8 +16381,12 @@
       <c r="C169" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="1">
+        <f t="shared" si="6"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>130</v>
       </c>
@@ -15689,8 +16396,12 @@
       <c r="C170" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="1">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>140</v>
       </c>
@@ -15700,8 +16411,12 @@
       <c r="C171" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="1">
+        <f t="shared" si="6"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>130</v>
       </c>
@@ -15711,8 +16426,12 @@
       <c r="C172" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="1">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>110</v>
       </c>
@@ -15722,8 +16441,12 @@
       <c r="C173" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="1">
+        <f t="shared" si="6"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>120</v>
       </c>
@@ -15733,8 +16456,12 @@
       <c r="C174" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="1">
+        <f t="shared" si="6"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>132</v>
       </c>
@@ -15744,8 +16471,12 @@
       <c r="C175" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>130</v>
       </c>
@@ -15755,8 +16486,12 @@
       <c r="C176" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="1">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>110</v>
       </c>
@@ -15766,8 +16501,12 @@
       <c r="C177" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="1">
+        <f t="shared" si="6"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>117</v>
       </c>
@@ -15777,8 +16516,12 @@
       <c r="C178" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="1">
+        <f t="shared" si="6"/>
+        <v>0.30263157894736842</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>140</v>
       </c>
@@ -15788,8 +16531,12 @@
       <c r="C179" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="1">
+        <f t="shared" si="6"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>120</v>
       </c>
@@ -15799,8 +16546,12 @@
       <c r="C180" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="1">
+        <f t="shared" si="6"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>150</v>
       </c>
@@ -15810,8 +16561,12 @@
       <c r="C181" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="1">
+        <f t="shared" si="6"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>132</v>
       </c>
@@ -15821,8 +16576,12 @@
       <c r="C182" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="1">
+        <f>(A182-94)/(170-94)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>150</v>
       </c>
@@ -15832,8 +16591,12 @@
       <c r="C183" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="1">
+        <f t="shared" ref="D183:D205" si="7">(A183-94)/(170-94)</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>130</v>
       </c>
@@ -15843,8 +16606,12 @@
       <c r="C184" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>112</v>
       </c>
@@ -15854,8 +16621,12 @@
       <c r="C185" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="1">
+        <f t="shared" si="7"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>150</v>
       </c>
@@ -15865,8 +16636,12 @@
       <c r="C186" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="1">
+        <f t="shared" si="7"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>112</v>
       </c>
@@ -15876,8 +16651,12 @@
       <c r="C187" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="1">
+        <f t="shared" si="7"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>130</v>
       </c>
@@ -15887,8 +16666,12 @@
       <c r="C188" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>124</v>
       </c>
@@ -15898,8 +16681,12 @@
       <c r="C189" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="1">
+        <f t="shared" si="7"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>140</v>
       </c>
@@ -15909,8 +16696,12 @@
       <c r="C190" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="1">
+        <f t="shared" si="7"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>110</v>
       </c>
@@ -15920,8 +16711,12 @@
       <c r="C191" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>130</v>
       </c>
@@ -15931,8 +16726,12 @@
       <c r="C192" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>128</v>
       </c>
@@ -15942,8 +16741,12 @@
       <c r="C193" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="1">
+        <f t="shared" si="7"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>120</v>
       </c>
@@ -15953,8 +16756,12 @@
       <c r="C194" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>145</v>
       </c>
@@ -15964,8 +16771,12 @@
       <c r="C195" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="1">
+        <f t="shared" si="7"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>140</v>
       </c>
@@ -15975,8 +16786,12 @@
       <c r="C196" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="1">
+        <f t="shared" si="7"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>170</v>
       </c>
@@ -15986,8 +16801,12 @@
       <c r="C197" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>150</v>
       </c>
@@ -15997,8 +16816,12 @@
       <c r="C198" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" s="1">
+        <f t="shared" si="7"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>125</v>
       </c>
@@ -16008,8 +16831,12 @@
       <c r="C199" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" s="1">
+        <f t="shared" si="7"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>120</v>
       </c>
@@ -16019,8 +16846,12 @@
       <c r="C200" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>110</v>
       </c>
@@ -16030,8 +16861,12 @@
       <c r="C201" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>110</v>
       </c>
@@ -16041,8 +16876,12 @@
       <c r="C202" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>125</v>
       </c>
@@ -16052,8 +16891,12 @@
       <c r="C203" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" s="1">
+        <f t="shared" si="7"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>150</v>
       </c>
@@ -16063,8 +16906,12 @@
       <c r="C204" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="1">
+        <f t="shared" si="7"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>180</v>
       </c>
@@ -16074,8 +16921,12 @@
       <c r="C205" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" s="1">
+        <f t="shared" si="7"/>
+        <v>1.131578947368421</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>160</v>
       </c>
@@ -16085,8 +16936,12 @@
       <c r="C206" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="1">
+        <f>(A206-94)/(170-94)</f>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>128</v>
       </c>
@@ -16096,8 +16951,12 @@
       <c r="C207" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="1">
+        <f t="shared" ref="D207:D222" si="8">(A207-94)/(170-94)</f>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>110</v>
       </c>
@@ -16107,8 +16966,12 @@
       <c r="C208" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="1">
+        <f t="shared" si="8"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>150</v>
       </c>
@@ -16118,8 +16981,12 @@
       <c r="C209" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="1">
+        <f t="shared" si="8"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>120</v>
       </c>
@@ -16129,8 +16996,12 @@
       <c r="C210" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="1">
+        <f t="shared" si="8"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>140</v>
       </c>
@@ -16140,8 +17011,12 @@
       <c r="C211" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="1">
+        <f t="shared" si="8"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>128</v>
       </c>
@@ -16151,8 +17026,12 @@
       <c r="C212" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="1">
+        <f t="shared" si="8"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>120</v>
       </c>
@@ -16162,8 +17041,12 @@
       <c r="C213" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="1">
+        <f t="shared" si="8"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>118</v>
       </c>
@@ -16173,8 +17056,12 @@
       <c r="C214" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="1">
+        <f t="shared" si="8"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>145</v>
       </c>
@@ -16184,8 +17071,12 @@
       <c r="C215" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="1">
+        <f t="shared" si="8"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>125</v>
       </c>
@@ -16195,8 +17086,12 @@
       <c r="C216" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="1">
+        <f t="shared" si="8"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>132</v>
       </c>
@@ -16206,8 +17101,12 @@
       <c r="C217" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>130</v>
       </c>
@@ -16217,8 +17116,12 @@
       <c r="C218" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="1">
+        <f t="shared" si="8"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>130</v>
       </c>
@@ -16228,8 +17131,12 @@
       <c r="C219" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="1">
+        <f t="shared" si="8"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>135</v>
       </c>
@@ -16239,8 +17146,12 @@
       <c r="C220" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="1">
+        <f t="shared" si="8"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>130</v>
       </c>
@@ -16250,8 +17161,12 @@
       <c r="C221" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="1">
+        <f t="shared" si="8"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>150</v>
       </c>
@@ -16261,8 +17176,12 @@
       <c r="C222" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="1">
+        <f t="shared" si="8"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>140</v>
       </c>
@@ -16272,8 +17191,12 @@
       <c r="C223" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="1">
+        <f>(A223-94)/(170-94)</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>138</v>
       </c>
@@ -16283,8 +17206,12 @@
       <c r="C224" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" s="1">
+        <f t="shared" ref="D224:D239" si="9">(A224-94)/(170-94)</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>200</v>
       </c>
@@ -16294,8 +17221,12 @@
       <c r="C225" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3947368421052631</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>110</v>
       </c>
@@ -16305,8 +17236,12 @@
       <c r="C226" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="1">
+        <f t="shared" si="9"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>145</v>
       </c>
@@ -16316,8 +17251,12 @@
       <c r="C227" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="1">
+        <f t="shared" si="9"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>120</v>
       </c>
@@ -16327,8 +17266,12 @@
       <c r="C228" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" s="1">
+        <f t="shared" si="9"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>120</v>
       </c>
@@ -16338,8 +17281,12 @@
       <c r="C229" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="1">
+        <f t="shared" si="9"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>170</v>
       </c>
@@ -16349,8 +17296,12 @@
       <c r="C230" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>125</v>
       </c>
@@ -16360,8 +17311,12 @@
       <c r="C231" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="1">
+        <f t="shared" si="9"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>108</v>
       </c>
@@ -16371,8 +17326,12 @@
       <c r="C232" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="1">
+        <f t="shared" si="9"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>165</v>
       </c>
@@ -16382,8 +17341,12 @@
       <c r="C233" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="1">
+        <f t="shared" si="9"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>160</v>
       </c>
@@ -16393,8 +17356,12 @@
       <c r="C234" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="1">
+        <f t="shared" si="9"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>120</v>
       </c>
@@ -16404,8 +17371,12 @@
       <c r="C235" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="1">
+        <f t="shared" si="9"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>130</v>
       </c>
@@ -16415,8 +17386,12 @@
       <c r="C236" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="1">
+        <f t="shared" si="9"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>140</v>
       </c>
@@ -16426,8 +17401,12 @@
       <c r="C237" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="1">
+        <f t="shared" si="9"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>125</v>
       </c>
@@ -16437,8 +17416,12 @@
       <c r="C238" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" s="1">
+        <f t="shared" si="9"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>140</v>
       </c>
@@ -16448,8 +17431,12 @@
       <c r="C239" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" s="1">
+        <f t="shared" si="9"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>125</v>
       </c>
@@ -16459,8 +17446,12 @@
       <c r="C240" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" s="1">
+        <f>(A240-94)/(170-94)</f>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>126</v>
       </c>
@@ -16470,8 +17461,12 @@
       <c r="C241" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" s="1">
+        <f t="shared" ref="D241:D259" si="10">(A241-94)/(170-94)</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>160</v>
       </c>
@@ -16481,8 +17476,12 @@
       <c r="C242" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" s="1">
+        <f t="shared" si="10"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>174</v>
       </c>
@@ -16492,8 +17491,12 @@
       <c r="C243" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>145</v>
       </c>
@@ -16503,8 +17506,12 @@
       <c r="C244" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" s="1">
+        <f t="shared" si="10"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>152</v>
       </c>
@@ -16514,8 +17521,12 @@
       <c r="C245" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>132</v>
       </c>
@@ -16525,8 +17536,12 @@
       <c r="C246" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>124</v>
       </c>
@@ -16536,8 +17551,12 @@
       <c r="C247" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" s="1">
+        <f t="shared" si="10"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>134</v>
       </c>
@@ -16547,8 +17566,12 @@
       <c r="C248" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" s="1">
+        <f t="shared" si="10"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>160</v>
       </c>
@@ -16558,8 +17581,12 @@
       <c r="C249" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" s="1">
+        <f t="shared" si="10"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>192</v>
       </c>
@@ -16569,8 +17596,12 @@
       <c r="C250" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2894736842105263</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>140</v>
       </c>
@@ -16580,8 +17611,12 @@
       <c r="C251" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" s="1">
+        <f t="shared" si="10"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>140</v>
       </c>
@@ -16591,8 +17626,12 @@
       <c r="C252" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" s="1">
+        <f t="shared" si="10"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>132</v>
       </c>
@@ -16602,8 +17641,12 @@
       <c r="C253" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>138</v>
       </c>
@@ -16613,8 +17656,12 @@
       <c r="C254" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" s="1">
+        <f t="shared" si="10"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>100</v>
       </c>
@@ -16624,8 +17671,12 @@
       <c r="C255" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" s="1">
+        <f t="shared" si="10"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>160</v>
       </c>
@@ -16635,8 +17686,12 @@
       <c r="C256" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" s="1">
+        <f t="shared" si="10"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>142</v>
       </c>
@@ -16646,8 +17701,12 @@
       <c r="C257" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" s="1">
+        <f t="shared" si="10"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>128</v>
       </c>
@@ -16657,8 +17716,12 @@
       <c r="C258" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" s="1">
+        <f t="shared" si="10"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>144</v>
       </c>
@@ -16668,8 +17731,12 @@
       <c r="C259" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" s="1">
+        <f t="shared" si="10"/>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>150</v>
       </c>
@@ -16679,8 +17746,12 @@
       <c r="C260" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" s="1">
+        <f>(A260-94)/(170-94)</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>120</v>
       </c>
@@ -16690,8 +17761,12 @@
       <c r="C261" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" s="1">
+        <f t="shared" ref="D261:D276" si="11">(A261-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>178</v>
       </c>
@@ -16701,8 +17776,12 @@
       <c r="C262" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" s="1">
+        <f t="shared" si="11"/>
+        <v>1.1052631578947369</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>112</v>
       </c>
@@ -16712,8 +17791,12 @@
       <c r="C263" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" s="1">
+        <f t="shared" si="11"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>123</v>
       </c>
@@ -16723,8 +17806,12 @@
       <c r="C264" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" s="1">
+        <f t="shared" si="11"/>
+        <v>0.38157894736842107</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>108</v>
       </c>
@@ -16734,8 +17821,12 @@
       <c r="C265" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" s="1">
+        <f t="shared" si="11"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>110</v>
       </c>
@@ -16745,8 +17836,12 @@
       <c r="C266" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266" s="1">
+        <f t="shared" si="11"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>112</v>
       </c>
@@ -16756,8 +17851,12 @@
       <c r="C267" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267" s="1">
+        <f t="shared" si="11"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>180</v>
       </c>
@@ -16767,8 +17866,12 @@
       <c r="C268" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268" s="1">
+        <f t="shared" si="11"/>
+        <v>1.131578947368421</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>118</v>
       </c>
@@ -16778,8 +17881,12 @@
       <c r="C269" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269" s="1">
+        <f t="shared" si="11"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>122</v>
       </c>
@@ -16789,8 +17896,12 @@
       <c r="C270" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270" s="1">
+        <f t="shared" si="11"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>130</v>
       </c>
@@ -16800,8 +17911,12 @@
       <c r="C271" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271" s="1">
+        <f t="shared" si="11"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>120</v>
       </c>
@@ -16811,8 +17926,12 @@
       <c r="C272" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272" s="1">
+        <f t="shared" si="11"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>134</v>
       </c>
@@ -16822,8 +17941,12 @@
       <c r="C273" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273" s="1">
+        <f t="shared" si="11"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>120</v>
       </c>
@@ -16833,8 +17956,12 @@
       <c r="C274" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274" s="1">
+        <f t="shared" si="11"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>100</v>
       </c>
@@ -16844,8 +17971,12 @@
       <c r="C275" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275" s="1">
+        <f t="shared" si="11"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>110</v>
       </c>
@@ -16855,8 +17986,12 @@
       <c r="C276" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276" s="1">
+        <f t="shared" si="11"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>125</v>
       </c>
@@ -16866,8 +18001,12 @@
       <c r="C277" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277" s="1">
+        <f>(A277-94)/(170-94)</f>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>146</v>
       </c>
@@ -16877,8 +18016,12 @@
       <c r="C278" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278" s="1">
+        <f t="shared" ref="D278:D294" si="12">(A278-94)/(170-94)</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>124</v>
       </c>
@@ -16888,8 +18031,12 @@
       <c r="C279" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279" s="1">
+        <f t="shared" si="12"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>136</v>
       </c>
@@ -16899,8 +18046,12 @@
       <c r="C280" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280" s="1">
+        <f t="shared" si="12"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>138</v>
       </c>
@@ -16910,8 +18061,12 @@
       <c r="C281" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281" s="1">
+        <f t="shared" si="12"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>136</v>
       </c>
@@ -16921,8 +18076,12 @@
       <c r="C282" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282" s="1">
+        <f t="shared" si="12"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>128</v>
       </c>
@@ -16932,8 +18091,12 @@
       <c r="C283" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283" s="1">
+        <f t="shared" si="12"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>126</v>
       </c>
@@ -16943,8 +18106,12 @@
       <c r="C284" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284" s="1">
+        <f t="shared" si="12"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>152</v>
       </c>
@@ -16954,8 +18121,12 @@
       <c r="C285" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285" s="1">
+        <f t="shared" si="12"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>140</v>
       </c>
@@ -16965,8 +18136,12 @@
       <c r="C286" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286" s="1">
+        <f t="shared" si="12"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>140</v>
       </c>
@@ -16976,8 +18151,12 @@
       <c r="C287" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287" s="1">
+        <f t="shared" si="12"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>134</v>
       </c>
@@ -16987,8 +18166,12 @@
       <c r="C288" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288" s="1">
+        <f t="shared" si="12"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>154</v>
       </c>
@@ -16998,8 +18181,12 @@
       <c r="C289" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289" s="1">
+        <f t="shared" si="12"/>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>110</v>
       </c>
@@ -17009,8 +18196,12 @@
       <c r="C290" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290" s="1">
+        <f t="shared" si="12"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>128</v>
       </c>
@@ -17020,8 +18211,12 @@
       <c r="C291" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291" s="1">
+        <f t="shared" si="12"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>148</v>
       </c>
@@ -17031,8 +18226,12 @@
       <c r="C292" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292" s="1">
+        <f t="shared" si="12"/>
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>114</v>
       </c>
@@ -17042,8 +18241,12 @@
       <c r="C293" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293" s="1">
+        <f t="shared" si="12"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>170</v>
       </c>
@@ -17053,8 +18256,12 @@
       <c r="C294" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>152</v>
       </c>
@@ -17064,8 +18271,12 @@
       <c r="C295" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295" s="1">
+        <f>(A295-94)/(170-94)</f>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>120</v>
       </c>
@@ -17075,8 +18286,12 @@
       <c r="C296" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296" s="1">
+        <f t="shared" ref="D296:D304" si="13">(A296-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>140</v>
       </c>
@@ -17086,8 +18301,12 @@
       <c r="C297" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297" s="1">
+        <f t="shared" si="13"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>124</v>
       </c>
@@ -17097,8 +18316,12 @@
       <c r="C298" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298" s="1">
+        <f t="shared" si="13"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>164</v>
       </c>
@@ -17108,8 +18331,12 @@
       <c r="C299" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299" s="1">
+        <f t="shared" si="13"/>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>140</v>
       </c>
@@ -17119,8 +18346,12 @@
       <c r="C300" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300" s="1">
+        <f t="shared" si="13"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>110</v>
       </c>
@@ -17130,8 +18361,12 @@
       <c r="C301" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301" s="1">
+        <f t="shared" si="13"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>144</v>
       </c>
@@ -17141,8 +18376,12 @@
       <c r="C302" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302" s="1">
+        <f t="shared" si="13"/>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>130</v>
       </c>
@@ -17152,8 +18391,12 @@
       <c r="C303" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303" s="1">
+        <f t="shared" si="13"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>130</v>
       </c>
@@ -17162,6 +18405,10 @@
       </c>
       <c r="C304" s="1">
         <v>200</v>
+      </c>
+      <c r="D304" s="1">
+        <f t="shared" si="13"/>
+        <v>0.47368421052631576</v>
       </c>
     </row>
   </sheetData>
@@ -17171,4 +18418,4583 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AFEAD8-9121-4498-B9F3-952B280AF1C5}">
+  <dimension ref="A1:D304"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="E294" sqref="E294"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="21" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>94</v>
+      </c>
+      <c r="D2" s="8">
+        <f>(A2-94)/(170-94)</f>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>94</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D66" si="0">(A3-94)/(170-94)</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>130</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>120</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>140</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>140</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>101</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>120</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>102</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>172</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>102</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0263157894736843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>104</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>105</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>105</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>130</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>105</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>106</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>150</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>108</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>120</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>108</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>108</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>150</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>108</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>150</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>108</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>108</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>110</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>130</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>110</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>140</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>110</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>150</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>110</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>140</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>110</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>160</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>110</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>150</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>110</v>
+      </c>
+      <c r="D28" s="8">
+        <f>(A28-94)/(170-94)</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>110</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>140</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>110</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>130</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>110</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <v>110</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>110</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>130</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>110</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>125</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>125</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>142</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>110</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>135</v>
+      </c>
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>110</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>150</v>
+      </c>
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>110</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>155</v>
+      </c>
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>110</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80263157894736847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <v>112</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>112</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>130</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <v>112</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>104</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>112</v>
+      </c>
+      <c r="D44" s="8">
+        <f>(A44-94)/(170-94)</f>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>130</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>112</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>140</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4">
+        <v>112</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>120</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4">
+        <v>112</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>140</v>
+      </c>
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4">
+        <v>112</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>138</v>
+      </c>
+      <c r="B49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4">
+        <v>112</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>128</v>
+      </c>
+      <c r="B50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" s="4">
+        <v>114</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>138</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4">
+        <v>115</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>130</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4">
+        <v>115</v>
+      </c>
+      <c r="D52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>120</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4">
+        <v>115</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>130</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4">
+        <v>117</v>
+      </c>
+      <c r="D54" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4">
+        <v>118</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>135</v>
+      </c>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4">
+        <v>118</v>
+      </c>
+      <c r="D56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>134</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4">
+        <v>118</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>122</v>
+      </c>
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>118</v>
+      </c>
+      <c r="D58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2">
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
+        <v>118</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27631578947368424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="4">
+        <v>118</v>
+      </c>
+      <c r="D60" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4">
+        <v>118</v>
+      </c>
+      <c r="D61" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>110</v>
+      </c>
+      <c r="B62" s="2">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4">
+        <v>120</v>
+      </c>
+      <c r="D62" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>108</v>
+      </c>
+      <c r="B63" s="2">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4">
+        <v>120</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>118</v>
+      </c>
+      <c r="B64" s="2">
+        <v>63</v>
+      </c>
+      <c r="C64" s="4">
+        <v>120</v>
+      </c>
+      <c r="D64" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>135</v>
+      </c>
+      <c r="B65" s="2">
+        <v>64</v>
+      </c>
+      <c r="C65" s="4">
+        <v>120</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>140</v>
+      </c>
+      <c r="B66" s="2">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4">
+        <v>120</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2">
+        <v>66</v>
+      </c>
+      <c r="C67" s="4">
+        <v>120</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" ref="D67:D68" si="1">(A67-94)/(170-94)</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2">
+        <v>67</v>
+      </c>
+      <c r="C68" s="4">
+        <v>120</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>130</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4">
+        <v>120</v>
+      </c>
+      <c r="D69" s="8">
+        <f>(A69-94)/(170-94)</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>120</v>
+      </c>
+      <c r="B70" s="2">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4">
+        <v>120</v>
+      </c>
+      <c r="D70" s="8">
+        <f t="shared" ref="D70:D97" si="2">(A70-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>124</v>
+      </c>
+      <c r="B71" s="2">
+        <v>70</v>
+      </c>
+      <c r="C71" s="4">
+        <v>120</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="2"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>120</v>
+      </c>
+      <c r="B72" s="2">
+        <v>71</v>
+      </c>
+      <c r="C72" s="4">
+        <v>120</v>
+      </c>
+      <c r="D72" s="8">
+        <f t="shared" si="2"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4">
+        <v>120</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>130</v>
+      </c>
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4">
+        <v>120</v>
+      </c>
+      <c r="D74" s="8">
+        <f t="shared" si="2"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>140</v>
+      </c>
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+      <c r="C75" s="4">
+        <v>120</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="2"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>122</v>
+      </c>
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+      <c r="C76" s="4">
+        <v>120</v>
+      </c>
+      <c r="D76" s="8">
+        <f t="shared" si="2"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>135</v>
+      </c>
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+      <c r="C77" s="4">
+        <v>120</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="2"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>125</v>
+      </c>
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+      <c r="C78" s="4">
+        <v>120</v>
+      </c>
+      <c r="D78" s="8">
+        <f t="shared" si="2"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>140</v>
+      </c>
+      <c r="B79" s="2">
+        <v>78</v>
+      </c>
+      <c r="C79" s="4">
+        <v>120</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="2"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4">
+        <v>120</v>
+      </c>
+      <c r="D80" s="8">
+        <f t="shared" si="2"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>105</v>
+      </c>
+      <c r="B81" s="2">
+        <v>80</v>
+      </c>
+      <c r="C81" s="4">
+        <v>120</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="2"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="4">
+        <v>120</v>
+      </c>
+      <c r="D82" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>128</v>
+      </c>
+      <c r="B83" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" s="4">
+        <v>120</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="2"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>102</v>
+      </c>
+      <c r="B84" s="2">
+        <v>83</v>
+      </c>
+      <c r="C84" s="4">
+        <v>120</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>152</v>
+      </c>
+      <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="C85" s="4">
+        <v>120</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="2"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>102</v>
+      </c>
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="C86" s="4">
+        <v>120</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>115</v>
+      </c>
+      <c r="B87" s="2">
+        <v>86</v>
+      </c>
+      <c r="C87" s="4">
+        <v>120</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="2"/>
+        <v>0.27631578947368424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>118</v>
+      </c>
+      <c r="B88" s="2">
+        <v>87</v>
+      </c>
+      <c r="C88" s="4">
+        <v>120</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="2"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>101</v>
+      </c>
+      <c r="B89" s="2">
+        <v>88</v>
+      </c>
+      <c r="C89" s="4">
+        <v>120</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="2"/>
+        <v>9.2105263157894732E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>110</v>
+      </c>
+      <c r="B90" s="2">
+        <v>89</v>
+      </c>
+      <c r="C90" s="4">
+        <v>120</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>100</v>
+      </c>
+      <c r="B91" s="2">
+        <v>90</v>
+      </c>
+      <c r="C91" s="4">
+        <v>120</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" si="2"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>124</v>
+      </c>
+      <c r="B92" s="2">
+        <v>91</v>
+      </c>
+      <c r="C92" s="4">
+        <v>120</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="2"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>132</v>
+      </c>
+      <c r="B93" s="2">
+        <v>92</v>
+      </c>
+      <c r="C93" s="4">
+        <v>120</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>138</v>
+      </c>
+      <c r="B94" s="2">
+        <v>93</v>
+      </c>
+      <c r="C94" s="4">
+        <v>120</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>132</v>
+      </c>
+      <c r="B95" s="2">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4">
+        <v>120</v>
+      </c>
+      <c r="D95" s="8">
+        <f>(A95-94)/(170-94)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>112</v>
+      </c>
+      <c r="B96" s="2">
+        <v>95</v>
+      </c>
+      <c r="C96" s="4">
+        <v>120</v>
+      </c>
+      <c r="D96" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>142</v>
+      </c>
+      <c r="B97" s="2">
+        <v>96</v>
+      </c>
+      <c r="C97" s="4">
+        <v>120</v>
+      </c>
+      <c r="D97" s="8">
+        <f t="shared" si="2"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>140</v>
+      </c>
+      <c r="B98" s="2">
+        <v>97</v>
+      </c>
+      <c r="C98" s="4">
+        <v>120</v>
+      </c>
+      <c r="D98" s="8">
+        <f>(A98-94)/(170-94)</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>108</v>
+      </c>
+      <c r="B99" s="2">
+        <v>98</v>
+      </c>
+      <c r="C99" s="4">
+        <v>122</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" ref="D99:D127" si="3">(A99-94)/(170-94)</f>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>130</v>
+      </c>
+      <c r="B100" s="2">
+        <v>99</v>
+      </c>
+      <c r="C100" s="4">
+        <v>122</v>
+      </c>
+      <c r="D100" s="8">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>130</v>
+      </c>
+      <c r="B101" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" s="4">
+        <v>122</v>
+      </c>
+      <c r="D101" s="8">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>148</v>
+      </c>
+      <c r="B102" s="2">
+        <v>101</v>
+      </c>
+      <c r="C102" s="4">
+        <v>122</v>
+      </c>
+      <c r="D102" s="8">
+        <f t="shared" si="3"/>
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>178</v>
+      </c>
+      <c r="B103" s="2">
+        <v>102</v>
+      </c>
+      <c r="C103" s="4">
+        <v>123</v>
+      </c>
+      <c r="D103" s="8">
+        <f t="shared" si="3"/>
+        <v>1.1052631578947369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>140</v>
+      </c>
+      <c r="B104" s="2">
+        <v>103</v>
+      </c>
+      <c r="C104" s="4">
+        <v>124</v>
+      </c>
+      <c r="D104" s="8">
+        <f t="shared" si="3"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>120</v>
+      </c>
+      <c r="B105" s="2">
+        <v>104</v>
+      </c>
+      <c r="C105" s="4">
+        <v>124</v>
+      </c>
+      <c r="D105" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>129</v>
+      </c>
+      <c r="B106" s="2">
+        <v>105</v>
+      </c>
+      <c r="C106" s="4">
+        <v>124</v>
+      </c>
+      <c r="D106" s="8">
+        <f t="shared" si="3"/>
+        <v>0.46052631578947367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>120</v>
+      </c>
+      <c r="B107" s="2">
+        <v>106</v>
+      </c>
+      <c r="C107" s="4">
+        <v>124</v>
+      </c>
+      <c r="D107" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>160</v>
+      </c>
+      <c r="B108" s="2">
+        <v>107</v>
+      </c>
+      <c r="C108" s="4">
+        <v>124</v>
+      </c>
+      <c r="D108" s="8">
+        <f t="shared" si="3"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>138</v>
+      </c>
+      <c r="B109" s="2">
+        <v>108</v>
+      </c>
+      <c r="C109" s="4">
+        <v>124</v>
+      </c>
+      <c r="D109" s="8">
+        <f t="shared" si="3"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>120</v>
+      </c>
+      <c r="B110" s="2">
+        <v>109</v>
+      </c>
+      <c r="C110" s="4">
+        <v>125</v>
+      </c>
+      <c r="D110" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>110</v>
+      </c>
+      <c r="C111" s="4">
+        <v>125</v>
+      </c>
+      <c r="D111" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>180</v>
+      </c>
+      <c r="B112" s="2">
+        <v>111</v>
+      </c>
+      <c r="C112" s="4">
+        <v>125</v>
+      </c>
+      <c r="D112" s="8">
+        <f t="shared" si="3"/>
+        <v>1.131578947368421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>150</v>
+      </c>
+      <c r="B113" s="2">
+        <v>112</v>
+      </c>
+      <c r="C113" s="4">
+        <v>125</v>
+      </c>
+      <c r="D113" s="8">
+        <f t="shared" si="3"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>140</v>
+      </c>
+      <c r="B114" s="2">
+        <v>113</v>
+      </c>
+      <c r="C114" s="4">
+        <v>125</v>
+      </c>
+      <c r="D114" s="8">
+        <f t="shared" si="3"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>110</v>
+      </c>
+      <c r="B115" s="2">
+        <v>114</v>
+      </c>
+      <c r="C115" s="4">
+        <v>125</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>130</v>
+      </c>
+      <c r="B116" s="2">
+        <v>115</v>
+      </c>
+      <c r="C116" s="4">
+        <v>125</v>
+      </c>
+      <c r="D116" s="8">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>120</v>
+      </c>
+      <c r="B117" s="2">
+        <v>116</v>
+      </c>
+      <c r="C117" s="4">
+        <v>125</v>
+      </c>
+      <c r="D117" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>130</v>
+      </c>
+      <c r="B118" s="2">
+        <v>117</v>
+      </c>
+      <c r="C118" s="4">
+        <v>125</v>
+      </c>
+      <c r="D118" s="8">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
+        <v>118</v>
+      </c>
+      <c r="C119" s="4">
+        <v>125</v>
+      </c>
+      <c r="D119" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>105</v>
+      </c>
+      <c r="B120" s="2">
+        <v>119</v>
+      </c>
+      <c r="C120" s="4">
+        <v>125</v>
+      </c>
+      <c r="D120" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2">
+        <v>120</v>
+      </c>
+      <c r="C121" s="4">
+        <v>126</v>
+      </c>
+      <c r="D121" s="8">
+        <f t="shared" si="3"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>130</v>
+      </c>
+      <c r="B122" s="2">
+        <v>121</v>
+      </c>
+      <c r="C122" s="4">
+        <v>126</v>
+      </c>
+      <c r="D122" s="8">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>138</v>
+      </c>
+      <c r="B123" s="2">
+        <v>122</v>
+      </c>
+      <c r="C123" s="4">
+        <v>126</v>
+      </c>
+      <c r="D123" s="8">
+        <f t="shared" si="3"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>112</v>
+      </c>
+      <c r="B124" s="2">
+        <v>123</v>
+      </c>
+      <c r="C124" s="4">
+        <v>128</v>
+      </c>
+      <c r="D124" s="8">
+        <f>(A124-94)/(170-94)</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>108</v>
+      </c>
+      <c r="B125" s="2">
+        <v>124</v>
+      </c>
+      <c r="C125" s="4">
+        <v>128</v>
+      </c>
+      <c r="D125" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>94</v>
+      </c>
+      <c r="B126" s="2">
+        <v>125</v>
+      </c>
+      <c r="C126" s="4">
+        <v>128</v>
+      </c>
+      <c r="D126" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>118</v>
+      </c>
+      <c r="B127" s="2">
+        <v>126</v>
+      </c>
+      <c r="C127" s="4">
+        <v>128</v>
+      </c>
+      <c r="D127" s="8">
+        <f t="shared" si="3"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>112</v>
+      </c>
+      <c r="B128" s="2">
+        <v>127</v>
+      </c>
+      <c r="C128" s="4">
+        <v>128</v>
+      </c>
+      <c r="D128" s="8">
+        <f>(A128-94)/(170-94)</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>152</v>
+      </c>
+      <c r="B129" s="2">
+        <v>128</v>
+      </c>
+      <c r="C129" s="4">
+        <v>128</v>
+      </c>
+      <c r="D129" s="8">
+        <f t="shared" ref="D129:D145" si="4">(A129-94)/(170-94)</f>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>136</v>
+      </c>
+      <c r="B130" s="2">
+        <v>129</v>
+      </c>
+      <c r="C130" s="4">
+        <v>128</v>
+      </c>
+      <c r="D130" s="8">
+        <f t="shared" si="4"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>120</v>
+      </c>
+      <c r="B131" s="2">
+        <v>130</v>
+      </c>
+      <c r="C131" s="4">
+        <v>128</v>
+      </c>
+      <c r="D131" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2">
+        <v>131</v>
+      </c>
+      <c r="C132" s="4">
+        <v>128</v>
+      </c>
+      <c r="D132" s="8">
+        <f t="shared" si="4"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>134</v>
+      </c>
+      <c r="B133" s="2">
+        <v>132</v>
+      </c>
+      <c r="C133" s="4">
+        <v>128</v>
+      </c>
+      <c r="D133" s="8">
+        <f t="shared" si="4"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>120</v>
+      </c>
+      <c r="B134" s="2">
+        <v>133</v>
+      </c>
+      <c r="C134" s="4">
+        <v>128</v>
+      </c>
+      <c r="D134" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>110</v>
+      </c>
+      <c r="B135" s="2">
+        <v>134</v>
+      </c>
+      <c r="C135" s="4">
+        <v>128</v>
+      </c>
+      <c r="D135" s="8">
+        <f t="shared" si="4"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>126</v>
+      </c>
+      <c r="B136" s="2">
+        <v>135</v>
+      </c>
+      <c r="C136" s="4">
+        <v>129</v>
+      </c>
+      <c r="D136" s="8">
+        <f t="shared" si="4"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>130</v>
+      </c>
+      <c r="B137" s="2">
+        <v>136</v>
+      </c>
+      <c r="C137" s="4">
+        <v>130</v>
+      </c>
+      <c r="D137" s="8">
+        <f t="shared" si="4"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>120</v>
+      </c>
+      <c r="B138" s="2">
+        <v>137</v>
+      </c>
+      <c r="C138" s="4">
+        <v>130</v>
+      </c>
+      <c r="D138" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>128</v>
+      </c>
+      <c r="B139" s="2">
+        <v>138</v>
+      </c>
+      <c r="C139" s="4">
+        <v>130</v>
+      </c>
+      <c r="D139" s="8">
+        <f t="shared" si="4"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>110</v>
+      </c>
+      <c r="B140" s="2">
+        <v>139</v>
+      </c>
+      <c r="C140" s="4">
+        <v>130</v>
+      </c>
+      <c r="D140" s="8">
+        <f t="shared" si="4"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>128</v>
+      </c>
+      <c r="B141" s="2">
+        <v>140</v>
+      </c>
+      <c r="C141" s="4">
+        <v>130</v>
+      </c>
+      <c r="D141" s="8">
+        <f t="shared" si="4"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>120</v>
+      </c>
+      <c r="B142" s="2">
+        <v>141</v>
+      </c>
+      <c r="C142" s="4">
+        <v>130</v>
+      </c>
+      <c r="D142" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>115</v>
+      </c>
+      <c r="B143" s="2">
+        <v>142</v>
+      </c>
+      <c r="C143" s="4">
+        <v>130</v>
+      </c>
+      <c r="D143" s="8">
+        <f t="shared" si="4"/>
+        <v>0.27631578947368424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>120</v>
+      </c>
+      <c r="B144" s="2">
+        <v>143</v>
+      </c>
+      <c r="C144" s="4">
+        <v>130</v>
+      </c>
+      <c r="D144" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>106</v>
+      </c>
+      <c r="B145" s="2">
+        <v>144</v>
+      </c>
+      <c r="C145" s="4">
+        <v>130</v>
+      </c>
+      <c r="D145" s="8">
+        <f t="shared" si="4"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>140</v>
+      </c>
+      <c r="B146" s="2">
+        <v>145</v>
+      </c>
+      <c r="C146" s="4">
+        <v>130</v>
+      </c>
+      <c r="D146" s="8">
+        <f>(A146-94)/(170-94)</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>156</v>
+      </c>
+      <c r="B147" s="2">
+        <v>146</v>
+      </c>
+      <c r="C147" s="4">
+        <v>130</v>
+      </c>
+      <c r="D147" s="8">
+        <f t="shared" ref="D147:D163" si="5">(A147-94)/(170-94)</f>
+        <v>0.81578947368421051</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>118</v>
+      </c>
+      <c r="B148" s="2">
+        <v>147</v>
+      </c>
+      <c r="C148" s="4">
+        <v>130</v>
+      </c>
+      <c r="D148" s="8">
+        <f t="shared" si="5"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>150</v>
+      </c>
+      <c r="B149" s="2">
+        <v>148</v>
+      </c>
+      <c r="C149" s="4">
+        <v>130</v>
+      </c>
+      <c r="D149" s="8">
+        <f t="shared" si="5"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>120</v>
+      </c>
+      <c r="B150" s="2">
+        <v>149</v>
+      </c>
+      <c r="C150" s="4">
+        <v>130</v>
+      </c>
+      <c r="D150" s="8">
+        <f t="shared" si="5"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>130</v>
+      </c>
+      <c r="B151" s="2">
+        <v>150</v>
+      </c>
+      <c r="C151" s="4">
+        <v>130</v>
+      </c>
+      <c r="D151" s="8">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>160</v>
+      </c>
+      <c r="B152" s="2">
+        <v>151</v>
+      </c>
+      <c r="C152" s="4">
+        <v>130</v>
+      </c>
+      <c r="D152" s="8">
+        <f t="shared" si="5"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>112</v>
+      </c>
+      <c r="B153" s="2">
+        <v>152</v>
+      </c>
+      <c r="C153" s="4">
+        <v>130</v>
+      </c>
+      <c r="D153" s="8">
+        <f t="shared" si="5"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>170</v>
+      </c>
+      <c r="B154" s="2">
+        <v>153</v>
+      </c>
+      <c r="C154" s="4">
+        <v>130</v>
+      </c>
+      <c r="D154" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>146</v>
+      </c>
+      <c r="B155" s="2">
+        <v>154</v>
+      </c>
+      <c r="C155" s="4">
+        <v>130</v>
+      </c>
+      <c r="D155" s="8">
+        <f t="shared" si="5"/>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>138</v>
+      </c>
+      <c r="B156" s="2">
+        <v>155</v>
+      </c>
+      <c r="C156" s="4">
+        <v>130</v>
+      </c>
+      <c r="D156" s="8">
+        <f t="shared" si="5"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>130</v>
+      </c>
+      <c r="B157" s="2">
+        <v>156</v>
+      </c>
+      <c r="C157" s="4">
+        <v>130</v>
+      </c>
+      <c r="D157" s="8">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>130</v>
+      </c>
+      <c r="B158" s="2">
+        <v>157</v>
+      </c>
+      <c r="C158" s="4">
+        <v>130</v>
+      </c>
+      <c r="D158" s="8">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>122</v>
+      </c>
+      <c r="B159" s="2">
+        <v>158</v>
+      </c>
+      <c r="C159" s="4">
+        <v>130</v>
+      </c>
+      <c r="D159" s="8">
+        <f t="shared" si="5"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>125</v>
+      </c>
+      <c r="B160" s="2">
+        <v>159</v>
+      </c>
+      <c r="C160" s="4">
+        <v>130</v>
+      </c>
+      <c r="D160" s="8">
+        <f t="shared" si="5"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>130</v>
+      </c>
+      <c r="B161" s="2">
+        <v>160</v>
+      </c>
+      <c r="C161" s="4">
+        <v>130</v>
+      </c>
+      <c r="D161" s="8">
+        <f t="shared" si="5"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>120</v>
+      </c>
+      <c r="B162" s="2">
+        <v>161</v>
+      </c>
+      <c r="C162" s="4">
+        <v>130</v>
+      </c>
+      <c r="D162" s="8">
+        <f t="shared" si="5"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>132</v>
+      </c>
+      <c r="B163" s="2">
+        <v>162</v>
+      </c>
+      <c r="C163" s="4">
+        <v>130</v>
+      </c>
+      <c r="D163" s="8">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>120</v>
+      </c>
+      <c r="B164" s="2">
+        <v>163</v>
+      </c>
+      <c r="C164" s="4">
+        <v>130</v>
+      </c>
+      <c r="D164" s="8">
+        <f>(A164-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>138</v>
+      </c>
+      <c r="B165" s="2">
+        <v>164</v>
+      </c>
+      <c r="C165" s="4">
+        <v>130</v>
+      </c>
+      <c r="D165" s="8">
+        <f t="shared" ref="D165:D181" si="6">(A165-94)/(170-94)</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>138</v>
+      </c>
+      <c r="B166" s="2">
+        <v>165</v>
+      </c>
+      <c r="C166" s="4">
+        <v>130</v>
+      </c>
+      <c r="D166" s="8">
+        <f t="shared" si="6"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>160</v>
+      </c>
+      <c r="B167" s="2">
+        <v>166</v>
+      </c>
+      <c r="C167" s="4">
+        <v>130</v>
+      </c>
+      <c r="D167" s="8">
+        <f t="shared" si="6"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>120</v>
+      </c>
+      <c r="B168" s="2">
+        <v>167</v>
+      </c>
+      <c r="C168" s="4">
+        <v>130</v>
+      </c>
+      <c r="D168" s="8">
+        <f t="shared" si="6"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>140</v>
+      </c>
+      <c r="B169" s="2">
+        <v>168</v>
+      </c>
+      <c r="C169" s="4">
+        <v>130</v>
+      </c>
+      <c r="D169" s="8">
+        <f t="shared" si="6"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>130</v>
+      </c>
+      <c r="B170" s="2">
+        <v>169</v>
+      </c>
+      <c r="C170" s="4">
+        <v>130</v>
+      </c>
+      <c r="D170" s="8">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>140</v>
+      </c>
+      <c r="B171" s="2">
+        <v>170</v>
+      </c>
+      <c r="C171" s="4">
+        <v>130</v>
+      </c>
+      <c r="D171" s="8">
+        <f t="shared" si="6"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>130</v>
+      </c>
+      <c r="B172" s="2">
+        <v>171</v>
+      </c>
+      <c r="C172" s="4">
+        <v>130</v>
+      </c>
+      <c r="D172" s="8">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>110</v>
+      </c>
+      <c r="B173" s="2">
+        <v>172</v>
+      </c>
+      <c r="C173" s="4">
+        <v>132</v>
+      </c>
+      <c r="D173" s="8">
+        <f t="shared" si="6"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>120</v>
+      </c>
+      <c r="B174" s="2">
+        <v>173</v>
+      </c>
+      <c r="C174" s="4">
+        <v>132</v>
+      </c>
+      <c r="D174" s="8">
+        <f t="shared" si="6"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>132</v>
+      </c>
+      <c r="B175" s="2">
+        <v>174</v>
+      </c>
+      <c r="C175" s="4">
+        <v>132</v>
+      </c>
+      <c r="D175" s="8">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>130</v>
+      </c>
+      <c r="B176" s="2">
+        <v>175</v>
+      </c>
+      <c r="C176" s="4">
+        <v>132</v>
+      </c>
+      <c r="D176" s="8">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>110</v>
+      </c>
+      <c r="B177" s="2">
+        <v>176</v>
+      </c>
+      <c r="C177" s="4">
+        <v>132</v>
+      </c>
+      <c r="D177" s="8">
+        <f t="shared" si="6"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>117</v>
+      </c>
+      <c r="B178" s="2">
+        <v>177</v>
+      </c>
+      <c r="C178" s="4">
+        <v>132</v>
+      </c>
+      <c r="D178" s="8">
+        <f t="shared" si="6"/>
+        <v>0.30263157894736842</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>140</v>
+      </c>
+      <c r="B179" s="2">
+        <v>178</v>
+      </c>
+      <c r="C179" s="4">
+        <v>132</v>
+      </c>
+      <c r="D179" s="8">
+        <f t="shared" si="6"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2">
+        <v>179</v>
+      </c>
+      <c r="C180" s="4">
+        <v>132</v>
+      </c>
+      <c r="D180" s="8">
+        <f t="shared" si="6"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>150</v>
+      </c>
+      <c r="B181" s="2">
+        <v>180</v>
+      </c>
+      <c r="C181" s="4">
+        <v>134</v>
+      </c>
+      <c r="D181" s="8">
+        <f t="shared" si="6"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
+        <v>132</v>
+      </c>
+      <c r="B182" s="2">
+        <v>181</v>
+      </c>
+      <c r="C182" s="4">
+        <v>134</v>
+      </c>
+      <c r="D182" s="8">
+        <f>(A182-94)/(170-94)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>150</v>
+      </c>
+      <c r="B183" s="2">
+        <v>182</v>
+      </c>
+      <c r="C183" s="4">
+        <v>134</v>
+      </c>
+      <c r="D183" s="8">
+        <f t="shared" ref="D183:D205" si="7">(A183-94)/(170-94)</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>130</v>
+      </c>
+      <c r="B184" s="2">
+        <v>183</v>
+      </c>
+      <c r="C184" s="4">
+        <v>134</v>
+      </c>
+      <c r="D184" s="8">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
+        <v>112</v>
+      </c>
+      <c r="B185" s="2">
+        <v>184</v>
+      </c>
+      <c r="C185" s="4">
+        <v>134</v>
+      </c>
+      <c r="D185" s="8">
+        <f t="shared" si="7"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="4">
+        <v>150</v>
+      </c>
+      <c r="B186" s="2">
+        <v>185</v>
+      </c>
+      <c r="C186" s="4">
+        <v>135</v>
+      </c>
+      <c r="D186" s="8">
+        <f t="shared" si="7"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
+        <v>112</v>
+      </c>
+      <c r="B187" s="2">
+        <v>186</v>
+      </c>
+      <c r="C187" s="4">
+        <v>135</v>
+      </c>
+      <c r="D187" s="8">
+        <f t="shared" si="7"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>130</v>
+      </c>
+      <c r="B188" s="2">
+        <v>187</v>
+      </c>
+      <c r="C188" s="4">
+        <v>135</v>
+      </c>
+      <c r="D188" s="8">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>124</v>
+      </c>
+      <c r="B189" s="2">
+        <v>188</v>
+      </c>
+      <c r="C189" s="4">
+        <v>135</v>
+      </c>
+      <c r="D189" s="8">
+        <f t="shared" si="7"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="4">
+        <v>140</v>
+      </c>
+      <c r="B190" s="2">
+        <v>189</v>
+      </c>
+      <c r="C190" s="4">
+        <v>135</v>
+      </c>
+      <c r="D190" s="8">
+        <f t="shared" si="7"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="4">
+        <v>110</v>
+      </c>
+      <c r="B191" s="2">
+        <v>190</v>
+      </c>
+      <c r="C191" s="4">
+        <v>135</v>
+      </c>
+      <c r="D191" s="8">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="4">
+        <v>130</v>
+      </c>
+      <c r="B192" s="2">
+        <v>191</v>
+      </c>
+      <c r="C192" s="4">
+        <v>136</v>
+      </c>
+      <c r="D192" s="8">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="4">
+        <v>128</v>
+      </c>
+      <c r="B193" s="2">
+        <v>192</v>
+      </c>
+      <c r="C193" s="4">
+        <v>136</v>
+      </c>
+      <c r="D193" s="8">
+        <f t="shared" si="7"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="4">
+        <v>120</v>
+      </c>
+      <c r="B194" s="2">
+        <v>193</v>
+      </c>
+      <c r="C194" s="4">
+        <v>136</v>
+      </c>
+      <c r="D194" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="4">
+        <v>145</v>
+      </c>
+      <c r="B195" s="2">
+        <v>194</v>
+      </c>
+      <c r="C195" s="4">
+        <v>138</v>
+      </c>
+      <c r="D195" s="8">
+        <f t="shared" si="7"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>140</v>
+      </c>
+      <c r="B196" s="2">
+        <v>195</v>
+      </c>
+      <c r="C196" s="4">
+        <v>138</v>
+      </c>
+      <c r="D196" s="8">
+        <f t="shared" si="7"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
+        <v>170</v>
+      </c>
+      <c r="B197" s="2">
+        <v>196</v>
+      </c>
+      <c r="C197" s="4">
+        <v>138</v>
+      </c>
+      <c r="D197" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="4">
+        <v>150</v>
+      </c>
+      <c r="B198" s="2">
+        <v>197</v>
+      </c>
+      <c r="C198" s="4">
+        <v>138</v>
+      </c>
+      <c r="D198" s="8">
+        <f t="shared" si="7"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
+        <v>125</v>
+      </c>
+      <c r="B199" s="2">
+        <v>198</v>
+      </c>
+      <c r="C199" s="4">
+        <v>138</v>
+      </c>
+      <c r="D199" s="8">
+        <f t="shared" si="7"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
+        <v>120</v>
+      </c>
+      <c r="B200" s="2">
+        <v>199</v>
+      </c>
+      <c r="C200" s="4">
+        <v>138</v>
+      </c>
+      <c r="D200" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
+        <v>110</v>
+      </c>
+      <c r="B201" s="2">
+        <v>200</v>
+      </c>
+      <c r="C201" s="4">
+        <v>138</v>
+      </c>
+      <c r="D201" s="8">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>110</v>
+      </c>
+      <c r="B202" s="2">
+        <v>201</v>
+      </c>
+      <c r="C202" s="4">
+        <v>138</v>
+      </c>
+      <c r="D202" s="8">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="4">
+        <v>125</v>
+      </c>
+      <c r="B203" s="2">
+        <v>202</v>
+      </c>
+      <c r="C203" s="4">
+        <v>138</v>
+      </c>
+      <c r="D203" s="8">
+        <f t="shared" si="7"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="4">
+        <v>150</v>
+      </c>
+      <c r="B204" s="2">
+        <v>203</v>
+      </c>
+      <c r="C204" s="4">
+        <v>138</v>
+      </c>
+      <c r="D204" s="8">
+        <f t="shared" si="7"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="4">
+        <v>180</v>
+      </c>
+      <c r="B205" s="2">
+        <v>204</v>
+      </c>
+      <c r="C205" s="4">
+        <v>138</v>
+      </c>
+      <c r="D205" s="8">
+        <f t="shared" si="7"/>
+        <v>1.131578947368421</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="4">
+        <v>160</v>
+      </c>
+      <c r="B206" s="2">
+        <v>205</v>
+      </c>
+      <c r="C206" s="4">
+        <v>138</v>
+      </c>
+      <c r="D206" s="8">
+        <f>(A206-94)/(170-94)</f>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="4">
+        <v>128</v>
+      </c>
+      <c r="B207" s="2">
+        <v>206</v>
+      </c>
+      <c r="C207" s="4">
+        <v>138</v>
+      </c>
+      <c r="D207" s="8">
+        <f t="shared" ref="D207:D222" si="8">(A207-94)/(170-94)</f>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="4">
+        <v>110</v>
+      </c>
+      <c r="B208" s="2">
+        <v>207</v>
+      </c>
+      <c r="C208" s="4">
+        <v>140</v>
+      </c>
+      <c r="D208" s="8">
+        <f t="shared" si="8"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
+        <v>150</v>
+      </c>
+      <c r="B209" s="2">
+        <v>208</v>
+      </c>
+      <c r="C209" s="4">
+        <v>140</v>
+      </c>
+      <c r="D209" s="8">
+        <f t="shared" si="8"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="4">
+        <v>120</v>
+      </c>
+      <c r="B210" s="2">
+        <v>209</v>
+      </c>
+      <c r="C210" s="4">
+        <v>140</v>
+      </c>
+      <c r="D210" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="4">
+        <v>140</v>
+      </c>
+      <c r="B211" s="2">
+        <v>210</v>
+      </c>
+      <c r="C211" s="4">
+        <v>140</v>
+      </c>
+      <c r="D211" s="8">
+        <f t="shared" si="8"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="4">
+        <v>128</v>
+      </c>
+      <c r="B212" s="2">
+        <v>211</v>
+      </c>
+      <c r="C212" s="4">
+        <v>140</v>
+      </c>
+      <c r="D212" s="8">
+        <f t="shared" si="8"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="4">
+        <v>120</v>
+      </c>
+      <c r="B213" s="2">
+        <v>212</v>
+      </c>
+      <c r="C213" s="4">
+        <v>140</v>
+      </c>
+      <c r="D213" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="4">
+        <v>118</v>
+      </c>
+      <c r="B214" s="2">
+        <v>213</v>
+      </c>
+      <c r="C214" s="4">
+        <v>140</v>
+      </c>
+      <c r="D214" s="8">
+        <f t="shared" si="8"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="4">
+        <v>145</v>
+      </c>
+      <c r="B215" s="2">
+        <v>214</v>
+      </c>
+      <c r="C215" s="4">
+        <v>140</v>
+      </c>
+      <c r="D215" s="8">
+        <f t="shared" si="8"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="4">
+        <v>125</v>
+      </c>
+      <c r="B216" s="2">
+        <v>215</v>
+      </c>
+      <c r="C216" s="4">
+        <v>140</v>
+      </c>
+      <c r="D216" s="8">
+        <f t="shared" si="8"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="4">
+        <v>132</v>
+      </c>
+      <c r="B217" s="2">
+        <v>216</v>
+      </c>
+      <c r="C217" s="4">
+        <v>140</v>
+      </c>
+      <c r="D217" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="4">
+        <v>130</v>
+      </c>
+      <c r="B218" s="2">
+        <v>217</v>
+      </c>
+      <c r="C218" s="4">
+        <v>140</v>
+      </c>
+      <c r="D218" s="8">
+        <f t="shared" si="8"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="4">
+        <v>130</v>
+      </c>
+      <c r="B219" s="2">
+        <v>218</v>
+      </c>
+      <c r="C219" s="4">
+        <v>140</v>
+      </c>
+      <c r="D219" s="8">
+        <f t="shared" si="8"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="4">
+        <v>135</v>
+      </c>
+      <c r="B220" s="2">
+        <v>219</v>
+      </c>
+      <c r="C220" s="4">
+        <v>140</v>
+      </c>
+      <c r="D220" s="8">
+        <f t="shared" si="8"/>
+        <v>0.53947368421052633</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="4">
+        <v>130</v>
+      </c>
+      <c r="B221" s="2">
+        <v>220</v>
+      </c>
+      <c r="C221" s="4">
+        <v>140</v>
+      </c>
+      <c r="D221" s="8">
+        <f t="shared" si="8"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
+        <v>150</v>
+      </c>
+      <c r="B222" s="2">
+        <v>221</v>
+      </c>
+      <c r="C222" s="4">
+        <v>140</v>
+      </c>
+      <c r="D222" s="8">
+        <f t="shared" si="8"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
+        <v>140</v>
+      </c>
+      <c r="B223" s="2">
+        <v>222</v>
+      </c>
+      <c r="C223" s="4">
+        <v>140</v>
+      </c>
+      <c r="D223" s="8">
+        <f>(A223-94)/(170-94)</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
+        <v>138</v>
+      </c>
+      <c r="B224" s="2">
+        <v>223</v>
+      </c>
+      <c r="C224" s="4">
+        <v>140</v>
+      </c>
+      <c r="D224" s="8">
+        <f t="shared" ref="D224:D239" si="9">(A224-94)/(170-94)</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="4">
+        <v>200</v>
+      </c>
+      <c r="B225" s="2">
+        <v>224</v>
+      </c>
+      <c r="C225" s="4">
+        <v>140</v>
+      </c>
+      <c r="D225" s="8">
+        <f t="shared" si="9"/>
+        <v>1.3947368421052631</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="4">
+        <v>110</v>
+      </c>
+      <c r="B226" s="2">
+        <v>225</v>
+      </c>
+      <c r="C226" s="4">
+        <v>140</v>
+      </c>
+      <c r="D226" s="8">
+        <f t="shared" si="9"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
+        <v>145</v>
+      </c>
+      <c r="B227" s="2">
+        <v>226</v>
+      </c>
+      <c r="C227" s="4">
+        <v>140</v>
+      </c>
+      <c r="D227" s="8">
+        <f t="shared" si="9"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
+        <v>120</v>
+      </c>
+      <c r="B228" s="2">
+        <v>227</v>
+      </c>
+      <c r="C228" s="4">
+        <v>140</v>
+      </c>
+      <c r="D228" s="8">
+        <f t="shared" si="9"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
+        <v>120</v>
+      </c>
+      <c r="B229" s="2">
+        <v>228</v>
+      </c>
+      <c r="C229" s="4">
+        <v>140</v>
+      </c>
+      <c r="D229" s="8">
+        <f t="shared" si="9"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
+        <v>170</v>
+      </c>
+      <c r="B230" s="2">
+        <v>229</v>
+      </c>
+      <c r="C230" s="4">
+        <v>140</v>
+      </c>
+      <c r="D230" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="4">
+        <v>125</v>
+      </c>
+      <c r="B231" s="2">
+        <v>230</v>
+      </c>
+      <c r="C231" s="4">
+        <v>140</v>
+      </c>
+      <c r="D231" s="8">
+        <f t="shared" si="9"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>108</v>
+      </c>
+      <c r="B232" s="2">
+        <v>231</v>
+      </c>
+      <c r="C232" s="4">
+        <v>140</v>
+      </c>
+      <c r="D232" s="8">
+        <f t="shared" si="9"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
+        <v>165</v>
+      </c>
+      <c r="B233" s="2">
+        <v>232</v>
+      </c>
+      <c r="C233" s="4">
+        <v>140</v>
+      </c>
+      <c r="D233" s="8">
+        <f t="shared" si="9"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
+        <v>160</v>
+      </c>
+      <c r="B234" s="2">
+        <v>233</v>
+      </c>
+      <c r="C234" s="4">
+        <v>140</v>
+      </c>
+      <c r="D234" s="8">
+        <f t="shared" si="9"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>120</v>
+      </c>
+      <c r="B235" s="2">
+        <v>234</v>
+      </c>
+      <c r="C235" s="4">
+        <v>140</v>
+      </c>
+      <c r="D235" s="8">
+        <f t="shared" si="9"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
+        <v>130</v>
+      </c>
+      <c r="B236" s="2">
+        <v>235</v>
+      </c>
+      <c r="C236" s="4">
+        <v>140</v>
+      </c>
+      <c r="D236" s="8">
+        <f t="shared" si="9"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>140</v>
+      </c>
+      <c r="B237" s="2">
+        <v>236</v>
+      </c>
+      <c r="C237" s="4">
+        <v>140</v>
+      </c>
+      <c r="D237" s="8">
+        <f t="shared" si="9"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>125</v>
+      </c>
+      <c r="B238" s="2">
+        <v>237</v>
+      </c>
+      <c r="C238" s="4">
+        <v>140</v>
+      </c>
+      <c r="D238" s="8">
+        <f t="shared" si="9"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>140</v>
+      </c>
+      <c r="B239" s="2">
+        <v>238</v>
+      </c>
+      <c r="C239" s="4">
+        <v>140</v>
+      </c>
+      <c r="D239" s="8">
+        <f t="shared" si="9"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>125</v>
+      </c>
+      <c r="B240" s="2">
+        <v>239</v>
+      </c>
+      <c r="C240" s="4">
+        <v>142</v>
+      </c>
+      <c r="D240" s="8">
+        <f>(A240-94)/(170-94)</f>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>126</v>
+      </c>
+      <c r="B241" s="2">
+        <v>240</v>
+      </c>
+      <c r="C241" s="4">
+        <v>142</v>
+      </c>
+      <c r="D241" s="8">
+        <f t="shared" ref="D241:D259" si="10">(A241-94)/(170-94)</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>160</v>
+      </c>
+      <c r="B242" s="2">
+        <v>241</v>
+      </c>
+      <c r="C242" s="4">
+        <v>142</v>
+      </c>
+      <c r="D242" s="8">
+        <f t="shared" si="10"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>174</v>
+      </c>
+      <c r="B243" s="2">
+        <v>242</v>
+      </c>
+      <c r="C243" s="4">
+        <v>144</v>
+      </c>
+      <c r="D243" s="8">
+        <f t="shared" si="10"/>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
+        <v>145</v>
+      </c>
+      <c r="B244" s="2">
+        <v>243</v>
+      </c>
+      <c r="C244" s="4">
+        <v>144</v>
+      </c>
+      <c r="D244" s="8">
+        <f t="shared" si="10"/>
+        <v>0.67105263157894735</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
+        <v>152</v>
+      </c>
+      <c r="B245" s="2">
+        <v>244</v>
+      </c>
+      <c r="C245" s="4">
+        <v>145</v>
+      </c>
+      <c r="D245" s="8">
+        <f t="shared" si="10"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
+        <v>132</v>
+      </c>
+      <c r="B246" s="2">
+        <v>245</v>
+      </c>
+      <c r="C246" s="4">
+        <v>145</v>
+      </c>
+      <c r="D246" s="8">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="4">
+        <v>124</v>
+      </c>
+      <c r="B247" s="2">
+        <v>246</v>
+      </c>
+      <c r="C247" s="4">
+        <v>145</v>
+      </c>
+      <c r="D247" s="8">
+        <f t="shared" si="10"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="4">
+        <v>134</v>
+      </c>
+      <c r="B248" s="2">
+        <v>247</v>
+      </c>
+      <c r="C248" s="4">
+        <v>145</v>
+      </c>
+      <c r="D248" s="8">
+        <f t="shared" si="10"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="4">
+        <v>160</v>
+      </c>
+      <c r="B249" s="2">
+        <v>248</v>
+      </c>
+      <c r="C249" s="4">
+        <v>145</v>
+      </c>
+      <c r="D249" s="8">
+        <f t="shared" si="10"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="4">
+        <v>192</v>
+      </c>
+      <c r="B250" s="2">
+        <v>249</v>
+      </c>
+      <c r="C250" s="4">
+        <v>146</v>
+      </c>
+      <c r="D250" s="8">
+        <f t="shared" si="10"/>
+        <v>1.2894736842105263</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
+        <v>140</v>
+      </c>
+      <c r="B251" s="2">
+        <v>250</v>
+      </c>
+      <c r="C251" s="4">
+        <v>146</v>
+      </c>
+      <c r="D251" s="8">
+        <f t="shared" si="10"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
+        <v>140</v>
+      </c>
+      <c r="B252" s="2">
+        <v>251</v>
+      </c>
+      <c r="C252" s="4">
+        <v>148</v>
+      </c>
+      <c r="D252" s="8">
+        <f t="shared" si="10"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>132</v>
+      </c>
+      <c r="B253" s="2">
+        <v>252</v>
+      </c>
+      <c r="C253" s="4">
+        <v>148</v>
+      </c>
+      <c r="D253" s="8">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
+        <v>138</v>
+      </c>
+      <c r="B254" s="2">
+        <v>253</v>
+      </c>
+      <c r="C254" s="4">
+        <v>150</v>
+      </c>
+      <c r="D254" s="8">
+        <f t="shared" si="10"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
+        <v>100</v>
+      </c>
+      <c r="B255" s="2">
+        <v>254</v>
+      </c>
+      <c r="C255" s="4">
+        <v>150</v>
+      </c>
+      <c r="D255" s="8">
+        <f t="shared" si="10"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>160</v>
+      </c>
+      <c r="B256" s="2">
+        <v>255</v>
+      </c>
+      <c r="C256" s="4">
+        <v>150</v>
+      </c>
+      <c r="D256" s="8">
+        <f t="shared" si="10"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="4">
+        <v>142</v>
+      </c>
+      <c r="B257" s="2">
+        <v>256</v>
+      </c>
+      <c r="C257" s="4">
+        <v>150</v>
+      </c>
+      <c r="D257" s="8">
+        <f t="shared" si="10"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
+        <v>128</v>
+      </c>
+      <c r="B258" s="2">
+        <v>257</v>
+      </c>
+      <c r="C258" s="4">
+        <v>150</v>
+      </c>
+      <c r="D258" s="8">
+        <f t="shared" si="10"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>144</v>
+      </c>
+      <c r="B259" s="2">
+        <v>258</v>
+      </c>
+      <c r="C259" s="4">
+        <v>150</v>
+      </c>
+      <c r="D259" s="8">
+        <f t="shared" si="10"/>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>150</v>
+      </c>
+      <c r="B260" s="2">
+        <v>259</v>
+      </c>
+      <c r="C260" s="4">
+        <v>150</v>
+      </c>
+      <c r="D260" s="8">
+        <f>(A260-94)/(170-94)</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>120</v>
+      </c>
+      <c r="B261" s="2">
+        <v>260</v>
+      </c>
+      <c r="C261" s="4">
+        <v>150</v>
+      </c>
+      <c r="D261" s="8">
+        <f t="shared" ref="D261:D276" si="11">(A261-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>178</v>
+      </c>
+      <c r="B262" s="2">
+        <v>261</v>
+      </c>
+      <c r="C262" s="4">
+        <v>150</v>
+      </c>
+      <c r="D262" s="8">
+        <f t="shared" si="11"/>
+        <v>1.1052631578947369</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="4">
+        <v>112</v>
+      </c>
+      <c r="B263" s="2">
+        <v>262</v>
+      </c>
+      <c r="C263" s="4">
+        <v>150</v>
+      </c>
+      <c r="D263" s="8">
+        <f t="shared" si="11"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
+        <v>123</v>
+      </c>
+      <c r="B264" s="2">
+        <v>263</v>
+      </c>
+      <c r="C264" s="4">
+        <v>150</v>
+      </c>
+      <c r="D264" s="8">
+        <f t="shared" si="11"/>
+        <v>0.38157894736842107</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
+        <v>108</v>
+      </c>
+      <c r="B265" s="2">
+        <v>264</v>
+      </c>
+      <c r="C265" s="4">
+        <v>150</v>
+      </c>
+      <c r="D265" s="8">
+        <f t="shared" si="11"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
+        <v>110</v>
+      </c>
+      <c r="B266" s="2">
+        <v>265</v>
+      </c>
+      <c r="C266" s="4">
+        <v>150</v>
+      </c>
+      <c r="D266" s="8">
+        <f t="shared" si="11"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>112</v>
+      </c>
+      <c r="B267" s="2">
+        <v>266</v>
+      </c>
+      <c r="C267" s="4">
+        <v>150</v>
+      </c>
+      <c r="D267" s="8">
+        <f t="shared" si="11"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
+        <v>180</v>
+      </c>
+      <c r="B268" s="2">
+        <v>267</v>
+      </c>
+      <c r="C268" s="4">
+        <v>150</v>
+      </c>
+      <c r="D268" s="8">
+        <f t="shared" si="11"/>
+        <v>1.131578947368421</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>118</v>
+      </c>
+      <c r="B269" s="2">
+        <v>268</v>
+      </c>
+      <c r="C269" s="4">
+        <v>150</v>
+      </c>
+      <c r="D269" s="8">
+        <f t="shared" si="11"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="4">
+        <v>122</v>
+      </c>
+      <c r="B270" s="2">
+        <v>269</v>
+      </c>
+      <c r="C270" s="4">
+        <v>150</v>
+      </c>
+      <c r="D270" s="8">
+        <f t="shared" si="11"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
+        <v>130</v>
+      </c>
+      <c r="B271" s="2">
+        <v>270</v>
+      </c>
+      <c r="C271" s="4">
+        <v>152</v>
+      </c>
+      <c r="D271" s="8">
+        <f t="shared" si="11"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="4">
+        <v>120</v>
+      </c>
+      <c r="B272" s="2">
+        <v>271</v>
+      </c>
+      <c r="C272" s="4">
+        <v>152</v>
+      </c>
+      <c r="D272" s="8">
+        <f t="shared" si="11"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="4">
+        <v>134</v>
+      </c>
+      <c r="B273" s="2">
+        <v>272</v>
+      </c>
+      <c r="C273" s="4">
+        <v>152</v>
+      </c>
+      <c r="D273" s="8">
+        <f t="shared" si="11"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="4">
+        <v>120</v>
+      </c>
+      <c r="B274" s="2">
+        <v>273</v>
+      </c>
+      <c r="C274" s="4">
+        <v>152</v>
+      </c>
+      <c r="D274" s="8">
+        <f t="shared" si="11"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="4">
+        <v>100</v>
+      </c>
+      <c r="B275" s="2">
+        <v>274</v>
+      </c>
+      <c r="C275" s="4">
+        <v>152</v>
+      </c>
+      <c r="D275" s="8">
+        <f t="shared" si="11"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
+        <v>110</v>
+      </c>
+      <c r="B276" s="2">
+        <v>275</v>
+      </c>
+      <c r="C276" s="4">
+        <v>154</v>
+      </c>
+      <c r="D276" s="8">
+        <f t="shared" si="11"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>125</v>
+      </c>
+      <c r="B277" s="2">
+        <v>276</v>
+      </c>
+      <c r="C277" s="4">
+        <v>155</v>
+      </c>
+      <c r="D277" s="8">
+        <f>(A277-94)/(170-94)</f>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="4">
+        <v>146</v>
+      </c>
+      <c r="B278" s="2">
+        <v>277</v>
+      </c>
+      <c r="C278" s="4">
+        <v>156</v>
+      </c>
+      <c r="D278" s="8">
+        <f t="shared" ref="D278:D294" si="12">(A278-94)/(170-94)</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="4">
+        <v>124</v>
+      </c>
+      <c r="B279" s="2">
+        <v>278</v>
+      </c>
+      <c r="C279" s="4">
+        <v>160</v>
+      </c>
+      <c r="D279" s="8">
+        <f t="shared" si="12"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>136</v>
+      </c>
+      <c r="B280" s="2">
+        <v>279</v>
+      </c>
+      <c r="C280" s="4">
+        <v>160</v>
+      </c>
+      <c r="D280" s="8">
+        <f t="shared" si="12"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="4">
+        <v>138</v>
+      </c>
+      <c r="B281" s="2">
+        <v>280</v>
+      </c>
+      <c r="C281" s="4">
+        <v>160</v>
+      </c>
+      <c r="D281" s="8">
+        <f t="shared" si="12"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="4">
+        <v>136</v>
+      </c>
+      <c r="B282" s="2">
+        <v>281</v>
+      </c>
+      <c r="C282" s="4">
+        <v>160</v>
+      </c>
+      <c r="D282" s="8">
+        <f t="shared" si="12"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="4">
+        <v>128</v>
+      </c>
+      <c r="B283" s="2">
+        <v>282</v>
+      </c>
+      <c r="C283" s="4">
+        <v>160</v>
+      </c>
+      <c r="D283" s="8">
+        <f t="shared" si="12"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="4">
+        <v>126</v>
+      </c>
+      <c r="B284" s="2">
+        <v>283</v>
+      </c>
+      <c r="C284" s="4">
+        <v>160</v>
+      </c>
+      <c r="D284" s="8">
+        <f t="shared" si="12"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="4">
+        <v>152</v>
+      </c>
+      <c r="B285" s="2">
+        <v>284</v>
+      </c>
+      <c r="C285" s="4">
+        <v>160</v>
+      </c>
+      <c r="D285" s="8">
+        <f t="shared" si="12"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="4">
+        <v>140</v>
+      </c>
+      <c r="B286" s="2">
+        <v>285</v>
+      </c>
+      <c r="C286" s="4">
+        <v>160</v>
+      </c>
+      <c r="D286" s="8">
+        <f t="shared" si="12"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="4">
+        <v>140</v>
+      </c>
+      <c r="B287" s="2">
+        <v>286</v>
+      </c>
+      <c r="C287" s="4">
+        <v>160</v>
+      </c>
+      <c r="D287" s="8">
+        <f t="shared" si="12"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="4">
+        <v>134</v>
+      </c>
+      <c r="B288" s="2">
+        <v>287</v>
+      </c>
+      <c r="C288" s="4">
+        <v>160</v>
+      </c>
+      <c r="D288" s="8">
+        <f t="shared" si="12"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="4">
+        <v>154</v>
+      </c>
+      <c r="B289" s="2">
+        <v>288</v>
+      </c>
+      <c r="C289" s="4">
+        <v>160</v>
+      </c>
+      <c r="D289" s="8">
+        <f t="shared" si="12"/>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="4">
+        <v>110</v>
+      </c>
+      <c r="B290" s="2">
+        <v>289</v>
+      </c>
+      <c r="C290" s="4">
+        <v>164</v>
+      </c>
+      <c r="D290" s="8">
+        <f t="shared" si="12"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="4">
+        <v>128</v>
+      </c>
+      <c r="B291" s="2">
+        <v>290</v>
+      </c>
+      <c r="C291" s="4">
+        <v>165</v>
+      </c>
+      <c r="D291" s="8">
+        <f t="shared" si="12"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="4">
+        <v>148</v>
+      </c>
+      <c r="B292" s="2">
+        <v>291</v>
+      </c>
+      <c r="C292" s="4">
+        <v>170</v>
+      </c>
+      <c r="D292" s="8">
+        <f t="shared" si="12"/>
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="4">
+        <v>114</v>
+      </c>
+      <c r="B293" s="2">
+        <v>292</v>
+      </c>
+      <c r="C293" s="4">
+        <v>170</v>
+      </c>
+      <c r="D293" s="8">
+        <f t="shared" si="12"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="4">
+        <v>170</v>
+      </c>
+      <c r="B294" s="2">
+        <v>293</v>
+      </c>
+      <c r="C294" s="4">
+        <v>170</v>
+      </c>
+      <c r="D294" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="4">
+        <v>152</v>
+      </c>
+      <c r="B295" s="2">
+        <v>294</v>
+      </c>
+      <c r="C295" s="4">
+        <v>170</v>
+      </c>
+      <c r="D295" s="8">
+        <f>(A295-94)/(170-94)</f>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="4">
+        <v>120</v>
+      </c>
+      <c r="B296" s="2">
+        <v>295</v>
+      </c>
+      <c r="C296" s="4">
+        <v>172</v>
+      </c>
+      <c r="D296" s="8">
+        <f t="shared" ref="D296:D304" si="13">(A296-94)/(170-94)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="4">
+        <v>140</v>
+      </c>
+      <c r="B297" s="2">
+        <v>296</v>
+      </c>
+      <c r="C297" s="4">
+        <v>174</v>
+      </c>
+      <c r="D297" s="8">
+        <f t="shared" si="13"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="4">
+        <v>124</v>
+      </c>
+      <c r="B298" s="2">
+        <v>297</v>
+      </c>
+      <c r="C298" s="4">
+        <v>178</v>
+      </c>
+      <c r="D298" s="8">
+        <f t="shared" si="13"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="4">
+        <v>164</v>
+      </c>
+      <c r="B299" s="2">
+        <v>298</v>
+      </c>
+      <c r="C299" s="4">
+        <v>178</v>
+      </c>
+      <c r="D299" s="8">
+        <f t="shared" si="13"/>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="4">
+        <v>140</v>
+      </c>
+      <c r="B300" s="2">
+        <v>299</v>
+      </c>
+      <c r="C300" s="4">
+        <v>180</v>
+      </c>
+      <c r="D300" s="8">
+        <f t="shared" si="13"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="4">
+        <v>110</v>
+      </c>
+      <c r="B301" s="2">
+        <v>300</v>
+      </c>
+      <c r="C301" s="4">
+        <v>180</v>
+      </c>
+      <c r="D301" s="8">
+        <f t="shared" si="13"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="4">
+        <v>144</v>
+      </c>
+      <c r="B302" s="2">
+        <v>301</v>
+      </c>
+      <c r="C302" s="4">
+        <v>180</v>
+      </c>
+      <c r="D302" s="8">
+        <f t="shared" si="13"/>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="4">
+        <v>130</v>
+      </c>
+      <c r="B303" s="2">
+        <v>302</v>
+      </c>
+      <c r="C303" s="4">
+        <v>192</v>
+      </c>
+      <c r="D303" s="8">
+        <f t="shared" si="13"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="4">
+        <v>130</v>
+      </c>
+      <c r="B304" s="2">
+        <v>303</v>
+      </c>
+      <c r="C304" s="4">
+        <v>200</v>
+      </c>
+      <c r="D304" s="8">
+        <f t="shared" si="13"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datasets/Perhitungan.xlsx
+++ b/Datasets/Perhitungan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Documents\skripsi\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B87C5-BF71-4FC9-99B4-BF7021FA6315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50372A85-332F-407A-B77F-50973B59D20D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3731" windowWidth="18851" windowHeight="9962" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -451,53 +451,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13835,6 +13835,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18424,7 +18425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AFEAD8-9121-4498-B9F3-952B280AF1C5}">
   <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView topLeftCell="A274" workbookViewId="0">
       <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
